--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H2">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I2">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J2">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>171.8432207131973</v>
+        <v>194.3493009042029</v>
       </c>
       <c r="R2">
-        <v>1546.588986418776</v>
+        <v>1749.143708137826</v>
       </c>
       <c r="S2">
-        <v>0.01050719850219196</v>
+        <v>0.01495467484103877</v>
       </c>
       <c r="T2">
-        <v>0.01050719850219196</v>
+        <v>0.01495467484103877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H3">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I3">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J3">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>213.7024997470222</v>
+        <v>202.7372519616889</v>
       </c>
       <c r="R3">
-        <v>1923.322497723199</v>
+        <v>1824.6352676552</v>
       </c>
       <c r="S3">
-        <v>0.01306664630665959</v>
+        <v>0.01560010592858912</v>
       </c>
       <c r="T3">
-        <v>0.01306664630665959</v>
+        <v>0.01560010592858912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H4">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I4">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J4">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>160.1197434462004</v>
+        <v>95.00779795433911</v>
       </c>
       <c r="R4">
-        <v>1441.077691015804</v>
+        <v>855.070181589052</v>
       </c>
       <c r="S4">
-        <v>0.009790377074677763</v>
+        <v>0.007310603738526357</v>
       </c>
       <c r="T4">
-        <v>0.009790377074677763</v>
+        <v>0.007310603738526357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H5">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I5">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J5">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>25.92904191324266</v>
+        <v>24.624706963142</v>
       </c>
       <c r="R5">
-        <v>233.3613772191839</v>
+        <v>221.622362668278</v>
       </c>
       <c r="S5">
-        <v>0.001585407845729306</v>
+        <v>0.001894807359616739</v>
       </c>
       <c r="T5">
-        <v>0.001585407845729306</v>
+        <v>0.001894807359616739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H6">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I6">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J6">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>137.7312373250871</v>
+        <v>70.224745492902</v>
       </c>
       <c r="R6">
-        <v>1239.581135925784</v>
+        <v>632.022709436118</v>
       </c>
       <c r="S6">
-        <v>0.00842145209174411</v>
+        <v>0.005403612103337086</v>
       </c>
       <c r="T6">
-        <v>0.00842145209174411</v>
+        <v>0.005403612103337087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>194.427109</v>
       </c>
       <c r="I7">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J7">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>2780.904809160776</v>
+        <v>3315.223017226002</v>
       </c>
       <c r="R7">
-        <v>25028.14328244698</v>
+        <v>29837.00715503402</v>
       </c>
       <c r="S7">
-        <v>0.1700359125270311</v>
+        <v>0.2550978162385054</v>
       </c>
       <c r="T7">
-        <v>0.1700359125270311</v>
+        <v>0.2550978162385053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>194.427109</v>
       </c>
       <c r="I8">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J8">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>3458.305231999955</v>
+        <v>3458.305231999956</v>
       </c>
       <c r="R8">
-        <v>31124.74708799959</v>
+        <v>31124.7470879996</v>
       </c>
       <c r="S8">
-        <v>0.2114549494765254</v>
+        <v>0.2661076217151654</v>
       </c>
       <c r="T8">
-        <v>0.2114549494765254</v>
+        <v>0.2661076217151654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>194.427109</v>
       </c>
       <c r="I9">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J9">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>2591.186098253404</v>
+        <v>1620.649197752638</v>
       </c>
       <c r="R9">
-        <v>23320.67488428064</v>
+        <v>14585.84277977375</v>
       </c>
       <c r="S9">
-        <v>0.1584357333240896</v>
+        <v>0.1247047541258067</v>
       </c>
       <c r="T9">
-        <v>0.1584357333240896</v>
+        <v>0.1247047541258067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>194.427109</v>
       </c>
       <c r="I10">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J10">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>419.6045503232946</v>
+        <v>420.049853211941</v>
       </c>
       <c r="R10">
-        <v>3776.440952909652</v>
+        <v>3780.448678907469</v>
       </c>
       <c r="S10">
-        <v>0.02565634119502543</v>
+        <v>0.03232174719736693</v>
       </c>
       <c r="T10">
-        <v>0.02565634119502544</v>
+        <v>0.03232174719736692</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>194.427109</v>
       </c>
       <c r="I11">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J11">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>2228.877337490356</v>
+        <v>1197.898276730421</v>
       </c>
       <c r="R11">
-        <v>20059.8960374132</v>
+        <v>10781.08449057379</v>
       </c>
       <c r="S11">
-        <v>0.1362826914256601</v>
+        <v>0.09217516676313765</v>
       </c>
       <c r="T11">
-        <v>0.1362826914256601</v>
+        <v>0.09217516676313765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H12">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I12">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J12">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>234.8249502333287</v>
+        <v>150.7073719732778</v>
       </c>
       <c r="R12">
-        <v>2113.424552099958</v>
+        <v>1356.3663477595</v>
       </c>
       <c r="S12">
-        <v>0.01435815946144824</v>
+        <v>0.01159654155441888</v>
       </c>
       <c r="T12">
-        <v>0.01435815946144824</v>
+        <v>0.01159654155441888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H13">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I13">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J13">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>292.0259446928444</v>
+        <v>157.2117743777778</v>
       </c>
       <c r="R13">
-        <v>2628.2335022356</v>
+        <v>1414.9059694</v>
       </c>
       <c r="S13">
-        <v>0.01785566259723972</v>
+        <v>0.01209703845634761</v>
       </c>
       <c r="T13">
-        <v>0.01785566259723972</v>
+        <v>0.01209703845634762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H14">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I14">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J14">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>218.8047374233119</v>
+        <v>73.67340906322221</v>
       </c>
       <c r="R14">
-        <v>1969.242636809807</v>
+        <v>663.0606815689999</v>
       </c>
       <c r="S14">
-        <v>0.0133786180204557</v>
+        <v>0.005668977824182648</v>
       </c>
       <c r="T14">
-        <v>0.0133786180204557</v>
+        <v>0.005668977824182648</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H15">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I15">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J15">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>35.43221519944134</v>
+        <v>19.0951284865</v>
       </c>
       <c r="R15">
-        <v>318.889936794972</v>
+        <v>171.8561563785</v>
       </c>
       <c r="S15">
-        <v>0.002166470791968354</v>
+        <v>0.001469320631640558</v>
       </c>
       <c r="T15">
-        <v>0.002166470791968354</v>
+        <v>0.001469320631640558</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H16">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I16">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J16">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>188.2106888837802</v>
+        <v>54.4554922065</v>
       </c>
       <c r="R16">
-        <v>1693.896199954022</v>
+        <v>490.0994298585</v>
       </c>
       <c r="S16">
-        <v>0.01150797255852583</v>
+        <v>0.004190208945790539</v>
       </c>
       <c r="T16">
-        <v>0.01150797255852583</v>
+        <v>0.004190208945790539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H17">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I17">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J17">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>573.3701669720281</v>
+        <v>513.3743935185506</v>
       </c>
       <c r="R17">
-        <v>5160.331502748252</v>
+        <v>4620.369541666955</v>
       </c>
       <c r="S17">
-        <v>0.03505820092644116</v>
+        <v>0.03950282862385835</v>
       </c>
       <c r="T17">
-        <v>0.03505820092644116</v>
+        <v>0.03950282862385834</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H18">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I18">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J18">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>713.0373689095999</v>
+        <v>535.5311971034668</v>
       </c>
       <c r="R18">
-        <v>6417.336320186399</v>
+        <v>4819.7807739312</v>
       </c>
       <c r="S18">
-        <v>0.04359802582563251</v>
+        <v>0.0412077372167249</v>
       </c>
       <c r="T18">
-        <v>0.04359802582563251</v>
+        <v>0.0412077372167249</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H19">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I19">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J19">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>534.2537439314621</v>
+        <v>250.9634479127013</v>
       </c>
       <c r="R19">
-        <v>4808.283695383158</v>
+        <v>2258.671031214312</v>
       </c>
       <c r="S19">
-        <v>0.03266646257402225</v>
+        <v>0.01931098667738637</v>
       </c>
       <c r="T19">
-        <v>0.03266646257402225</v>
+        <v>0.01931098667738637</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H20">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I20">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J20">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>86.514551051352</v>
+        <v>65.046254058852</v>
       </c>
       <c r="R20">
-        <v>778.630959462168</v>
+        <v>585.416286529668</v>
       </c>
       <c r="S20">
-        <v>0.005289854074265285</v>
+        <v>0.005005140613071759</v>
       </c>
       <c r="T20">
-        <v>0.005289854074265286</v>
+        <v>0.005005140613071758</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H21">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I21">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J21">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>459.552504978652</v>
+        <v>185.498923637412</v>
       </c>
       <c r="R21">
-        <v>4135.972544807868</v>
+        <v>1669.490312736708</v>
       </c>
       <c r="S21">
-        <v>0.02809892279689696</v>
+        <v>0.01427366125555323</v>
       </c>
       <c r="T21">
-        <v>0.02809892279689696</v>
+        <v>0.01427366125555323</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H22">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I22">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J22">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>201.218124857888</v>
+        <v>129.5552082376798</v>
       </c>
       <c r="R22">
-        <v>1810.963123720992</v>
+        <v>1165.996874139118</v>
       </c>
       <c r="S22">
-        <v>0.01230330048136897</v>
+        <v>0.009968937393361471</v>
       </c>
       <c r="T22">
-        <v>0.01230330048136897</v>
+        <v>0.009968937393361469</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H23">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I23">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J23">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>250.2328348949332</v>
+        <v>135.1467011881778</v>
       </c>
       <c r="R23">
-        <v>2252.095514054399</v>
+        <v>1216.3203106936</v>
       </c>
       <c r="S23">
-        <v>0.01530026065093046</v>
+        <v>0.01039918827958346</v>
       </c>
       <c r="T23">
-        <v>0.01530026065093046</v>
+        <v>0.01039918827958346</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H24">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I24">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J24">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>187.4906347498187</v>
+        <v>63.33315834382622</v>
       </c>
       <c r="R24">
-        <v>1687.415712748368</v>
+        <v>569.998425094436</v>
       </c>
       <c r="S24">
-        <v>0.01146394549893944</v>
+        <v>0.004873322339115554</v>
       </c>
       <c r="T24">
-        <v>0.01146394549893944</v>
+        <v>0.004873322339115553</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H25">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I25">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J25">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>30.361355958592</v>
+        <v>16.415078539306</v>
       </c>
       <c r="R25">
-        <v>273.252203627328</v>
+        <v>147.735706853754</v>
       </c>
       <c r="S25">
-        <v>0.001856417684262682</v>
+        <v>0.001263097736412419</v>
       </c>
       <c r="T25">
-        <v>0.001856417684262682</v>
+        <v>0.001263097736412419</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H26">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I26">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J26">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>161.2750342660586</v>
+        <v>46.812525094986</v>
       </c>
       <c r="R26">
-        <v>1451.475308394528</v>
+        <v>421.312725854874</v>
       </c>
       <c r="S26">
-        <v>0.009861016288268097</v>
+        <v>0.003602102441462108</v>
       </c>
       <c r="T26">
-        <v>0.009861016288268097</v>
+        <v>0.003602102441462108</v>
       </c>
     </row>
   </sheetData>
